--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398041</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海量化策略混合</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>398041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>中海量化策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>95.78</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1058,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1126,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1199,4 +1200,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1294,4 +1295,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1389,4 +1390,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,583 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5624</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>398041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海量化策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2410</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1721</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1042</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1040,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,112 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>516980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>华富中证证券公司先锋策略ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>97.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,36 +793,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516980</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富中证证券公司先锋策略ETF</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>95.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1398,96 +912,582 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16</v>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002926-华西证券.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -605,36 +622,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516980</t>
+          <t>005053</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富中证证券公司先锋策略ETF</t>
+          <t>银河量化价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -699,36 +752,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>516980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>华富中证证券公司先锋策略ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>97.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +790,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -906,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
